--- a/bot/app/excel/Real_Trading/2023-01.xlsx
+++ b/bot/app/excel/Real_Trading/2023-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44936.37777777778</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9856.139999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9808.860000000001</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.073155</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.07291</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.074405</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
